--- a/biology/Écologie/Forêts_pluviales_tropicales_du_Queensland/Forêts_pluviales_tropicales_du_Queensland.xlsx
+++ b/biology/Écologie/Forêts_pluviales_tropicales_du_Queensland/Forêts_pluviales_tropicales_du_Queensland.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_pluviales_tropicales_du_Queensland</t>
+          <t>Forêts_pluviales_tropicales_du_Queensland</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts pluviales tropicales du Queensland forment une écorégion terrestre définie par le Fonds mondial pour la nature (WWF), qui appartient au biome des forêts de feuillus humides tropicales et subtropicales de l'écozone australasienne. Elle se divise en trois zones le long de la côte du Queensland en Australie : la première est la plus étendue et inclut Cairns au Nord, la seconde comprend Mackay et les îles Whitsunday, et la troisième est constituée de la péninsule de Warginburra et s'étire à l'intérieur des terres.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_pluviales_tropicales_du_Queensland</t>
+          <t>Forêts_pluviales_tropicales_du_Queensland</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Présentation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les forêts pluviales tropicales du Queensland sont issues des anciennes forêts du Gondwana. On y trouve la plus grande concentration d'espèces actuelles témoins de l'évolution des plantes terrestres  des marsupiaux et des oiseaux.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_pluviales_tropicales_du_Queensland</t>
+          <t>Forêts_pluviales_tropicales_du_Queensland</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La variété des situations géologiques, topographiques et évolutives a produit un éventail d'associations végétales parmi les plus riches d'Australie.
 Les massifs forestiers sont bordés ou découpés par des forêts d'eucalyptus, des savanes sur les podzosols pauvres, des marécages à Melaleuca dans les zones inondées une partie de l'année et des mangroves côtières.
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAts_pluviales_tropicales_du_Queensland</t>
+          <t>Forêts_pluviales_tropicales_du_Queensland</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,7 +593,9 @@
           <t>Biodiversité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La biodiversité rencontrée dans les forêts pluviales tropicales du Queensland est très particulière. Elle est due à  l'histoire tectonique du Gondwana. Alors que cet ancien continent connaissait un climat chaud et humide, la séparation de l'Australie de l'Antarctique et son déplacement vers le nord a permis aux courants circumpolaires de s'établir et à la calotte de glace antarctique de s'installer. Le climat a énormément changé, devenant plus froid et plus sec, provoquant d'importantes extinctions d'espèces. Dans le cas du Queensland, ces effets ont été compensés par le mouvement de déplacement de l'Australie jusque sous les latitudes tropicales.
 La faune et la flore des forêts tropicales du Queensland sont les derniers vestiges d'une faune et flore continentale qui ont évolué sur place depuis le Gondwana., On retrouve des caractéristiques voisines mais nuancées par leurs caractères insulaires à Madagascar et en Nouvelle-Calédonie.
